--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_NOx.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>357.3102260541812</v>
+        <v>686.8058836131265</v>
       </c>
       <c r="C2">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D2">
-        <v>69.39813959091735</v>
+        <v>133.3940287945178</v>
       </c>
       <c r="E2">
-        <v>16.04304283354468</v>
+        <v>30.83722604531642</v>
       </c>
       <c r="F2">
-        <v>140.8682700460006</v>
+        <v>270.7707466153666</v>
       </c>
       <c r="G2">
-        <v>158.4744064602495</v>
+        <v>304.6124818786831</v>
       </c>
       <c r="H2">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I2">
-        <v>745.6958081884811</v>
+        <v>1433.343439691631</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>354.9057157846376</v>
+        <v>682.1840405201718</v>
       </c>
       <c r="C3">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D3">
-        <v>146.5071835808254</v>
+        <v>281.6096163439822</v>
       </c>
       <c r="E3">
-        <v>16.04304283354468</v>
+        <v>30.83722604531642</v>
       </c>
       <c r="F3">
-        <v>114.0362186086672</v>
+        <v>219.1953663076776</v>
       </c>
       <c r="G3">
-        <v>136.2323845009162</v>
+        <v>261.8598528430783</v>
       </c>
       <c r="H3">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I3">
-        <v>773.0607758527755</v>
+        <v>1485.943167956533</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>376.0654061566213</v>
+        <v>722.8562597381763</v>
       </c>
       <c r="C4">
-        <v>0.2041669575298617</v>
+        <v>0.3924406788448241</v>
       </c>
       <c r="D4">
-        <v>115.6635659848623</v>
+        <v>222.3233813241963</v>
       </c>
       <c r="E4">
-        <v>20.05380354193085</v>
+        <v>38.54653255664552</v>
       </c>
       <c r="F4">
-        <v>103.3033980337338</v>
+        <v>198.5652141846022</v>
       </c>
       <c r="G4">
-        <v>125.1113735212496</v>
+        <v>240.4835383252761</v>
       </c>
       <c r="H4">
-        <v>12.21300981931224</v>
+        <v>23.47530629939659</v>
       </c>
       <c r="I4">
-        <v>752.61472401524</v>
+        <v>1446.642673107138</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>493.8864093642584</v>
+        <v>949.3265712929755</v>
       </c>
       <c r="C5">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D5">
-        <v>188.9171577752751</v>
+        <v>363.1281894961873</v>
       </c>
       <c r="E5">
-        <v>28.07532495870319</v>
+        <v>53.96514557930374</v>
       </c>
       <c r="F5">
-        <v>107.3282057493338</v>
+        <v>206.3015212307554</v>
       </c>
       <c r="G5">
-        <v>72.28657136783306</v>
+        <v>138.946044365715</v>
       </c>
       <c r="H5">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I5">
-        <v>895.7992747159585</v>
+        <v>1721.865671759417</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>639.1188296446925</v>
+        <v>1228.485894107464</v>
       </c>
       <c r="C6">
-        <v>0.05104173938246544</v>
+        <v>0.09811016971120602</v>
       </c>
       <c r="D6">
-        <v>161.9289923788072</v>
+        <v>311.2527338538748</v>
       </c>
       <c r="E6">
-        <v>33.4230059032181</v>
+        <v>64.24422092774255</v>
       </c>
       <c r="F6">
-        <v>89.88737231506707</v>
+        <v>172.7775240307576</v>
       </c>
       <c r="G6">
-        <v>77.84707685766637</v>
+        <v>149.6342016246163</v>
       </c>
       <c r="H6">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I6">
-        <v>1007.490465904253</v>
+        <v>1936.55353027105</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>541.9766147551308</v>
+        <v>1041.763433152078</v>
       </c>
       <c r="C7">
-        <v>0.05104173938246544</v>
+        <v>0.09811016971120602</v>
       </c>
       <c r="D7">
-        <v>96.3863049873852</v>
+        <v>185.2694844368303</v>
       </c>
       <c r="E7">
-        <v>41.44452731999042</v>
+        <v>79.66283395040077</v>
       </c>
       <c r="F7">
-        <v>63.05532087773362</v>
+        <v>121.2021437230688</v>
       </c>
       <c r="G7">
-        <v>72.28657136783306</v>
+        <v>138.946044365715</v>
       </c>
       <c r="H7">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I7">
-        <v>823.9239594898214</v>
+        <v>1583.710125725944</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>383.7598390191609</v>
+        <v>737.6461576356328</v>
       </c>
       <c r="C8">
-        <v>0.122500174517917</v>
+        <v>0.2354644073068945</v>
       </c>
       <c r="D8">
-        <v>65.54268739142201</v>
+        <v>125.9832494170446</v>
       </c>
       <c r="E8">
-        <v>25.40148448644575</v>
+        <v>48.82560790508434</v>
       </c>
       <c r="F8">
-        <v>36.22326944040017</v>
+        <v>69.62676341537998</v>
       </c>
       <c r="G8">
-        <v>119.5508680314162</v>
+        <v>229.7953810663749</v>
       </c>
       <c r="H8">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I8">
-        <v>634.0900799203093</v>
+        <v>1218.81985421808</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>238.5274187387267</v>
+        <v>458.4868348211451</v>
       </c>
       <c r="C9">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D9">
-        <v>69.39813959091735</v>
+        <v>133.3940287945178</v>
       </c>
       <c r="E9">
-        <v>38.77068684773297</v>
+        <v>74.52329627618136</v>
       </c>
       <c r="F9">
-        <v>37.56487201226684</v>
+        <v>72.20553243076441</v>
       </c>
       <c r="G9">
-        <v>127.8916262661661</v>
+        <v>245.8276169547268</v>
       </c>
       <c r="H9">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I9">
-        <v>513.9587092315422</v>
+        <v>987.9086566666168</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>193.8035277252155</v>
+        <v>372.5205532921808</v>
       </c>
       <c r="C10">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D10">
-        <v>30.84361759596327</v>
+        <v>59.28623501978569</v>
       </c>
       <c r="E10">
-        <v>10.69536188902979</v>
+        <v>20.55815069687763</v>
       </c>
       <c r="F10">
-        <v>22.80724372173343</v>
+        <v>43.83907326153552</v>
       </c>
       <c r="G10">
-        <v>77.84707685766637</v>
+        <v>149.6342016246163</v>
       </c>
       <c r="I10">
-        <v>336.1091196162498</v>
+        <v>646.0540562683606</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>127.4390442858115</v>
+        <v>244.9576839266199</v>
       </c>
       <c r="C11">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D11">
-        <v>11.56635659848624</v>
+        <v>22.23233813241965</v>
       </c>
       <c r="E11">
-        <v>17.3799630696734</v>
+        <v>33.40699488242613</v>
       </c>
       <c r="F11">
-        <v>16.09923086240007</v>
+        <v>30.94522818461332</v>
       </c>
       <c r="G11">
-        <v>83.40758234749963</v>
+        <v>160.3223588835173</v>
       </c>
       <c r="I11">
-        <v>255.9228022075003</v>
+        <v>491.9234701114231</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>72.13530808630844</v>
+        <v>138.6552927886527</v>
       </c>
       <c r="C12">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D12">
-        <v>7.710904398990817</v>
+        <v>14.82155875494642</v>
       </c>
       <c r="E12">
-        <v>10.69536188902979</v>
+        <v>20.55815069687763</v>
       </c>
       <c r="F12">
-        <v>8.049615431200035</v>
+        <v>15.47261409230666</v>
       </c>
       <c r="G12">
-        <v>25.02227470424991</v>
+        <v>48.0967076650552</v>
       </c>
       <c r="H12">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I12">
-        <v>125.4500553291406</v>
+        <v>241.1345374889469</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>43.76208690569379</v>
+        <v>84.11754429178265</v>
       </c>
       <c r="C13">
-        <v>0.04083339150597235</v>
+        <v>0.07848813576896482</v>
       </c>
       <c r="D13">
-        <v>7.710904398990817</v>
+        <v>14.82155875494642</v>
       </c>
       <c r="E13">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F13">
-        <v>8.049615431200035</v>
+        <v>15.47261409230666</v>
       </c>
       <c r="G13">
-        <v>22.24202195933326</v>
+        <v>42.75262903560462</v>
       </c>
       <c r="I13">
-        <v>88.49006326736749</v>
+        <v>170.0916784959578</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>25.48780885716232</v>
+        <v>48.99153678532399</v>
       </c>
       <c r="C14">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D14">
-        <v>11.56635659848624</v>
+        <v>22.23233813241965</v>
       </c>
       <c r="E14">
-        <v>5.347680944514893</v>
+        <v>10.27907534843881</v>
       </c>
       <c r="F14">
-        <v>12.07442314680006</v>
+        <v>23.20892113845998</v>
       </c>
       <c r="G14">
-        <v>41.70379117374981</v>
+        <v>80.16117944175866</v>
       </c>
       <c r="I14">
-        <v>96.24131080797227</v>
+        <v>184.9907830500545</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>12.02255134771807</v>
+        <v>23.10921546477546</v>
       </c>
       <c r="C15">
-        <v>0.05104173938246544</v>
+        <v>0.09811016971120602</v>
       </c>
       <c r="D15">
-        <v>11.56635659848624</v>
+        <v>22.23233813241965</v>
       </c>
       <c r="E15">
-        <v>1.336920236128723</v>
+        <v>2.569768837109703</v>
       </c>
       <c r="F15">
-        <v>12.07442314680006</v>
+        <v>23.20892113845998</v>
       </c>
       <c r="G15">
-        <v>19.46176921441659</v>
+        <v>37.40855040615407</v>
       </c>
       <c r="I15">
-        <v>56.51306228293214</v>
+        <v>108.6269041486301</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>6.73262875472212</v>
+        <v>12.94116066027426</v>
       </c>
       <c r="C16">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D16">
-        <v>3.855452199495408</v>
+        <v>7.410779377473212</v>
       </c>
       <c r="F16">
-        <v>4.024807715600017</v>
+        <v>7.736307046153329</v>
       </c>
       <c r="G16">
-        <v>33.36303293899988</v>
+        <v>64.12894355340694</v>
       </c>
       <c r="I16">
-        <v>48.0065466524469</v>
+        <v>92.27605673913448</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>32.70133966579315</v>
+        <v>62.85706606418928</v>
       </c>
       <c r="D17">
-        <v>7.710904398990817</v>
+        <v>14.82155875494642</v>
       </c>
       <c r="E17">
-        <v>5.347680944514893</v>
+        <v>10.27907534843881</v>
       </c>
       <c r="F17">
-        <v>10.73282057493338</v>
+        <v>20.63015212307555</v>
       </c>
       <c r="G17">
-        <v>69.50631862291638</v>
+        <v>133.6019657362644</v>
       </c>
       <c r="I17">
-        <v>125.9990642071486</v>
+        <v>242.1898180269145</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>78.86793684103056</v>
+        <v>151.596453448927</v>
       </c>
       <c r="C18">
-        <v>0.04083339150597235</v>
+        <v>0.07848813576896482</v>
       </c>
       <c r="D18">
-        <v>15.42180879798163</v>
+        <v>29.64311750989285</v>
       </c>
       <c r="E18">
-        <v>16.04304283354468</v>
+        <v>30.83722604531642</v>
       </c>
       <c r="F18">
-        <v>34.8816668685335</v>
+        <v>67.04799439999556</v>
       </c>
       <c r="G18">
-        <v>155.6941537153327</v>
+        <v>299.2684032492326</v>
       </c>
       <c r="I18">
-        <v>300.9494424479291</v>
+        <v>578.4716827891333</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>249.1072639247184</v>
+        <v>478.8229444301477</v>
       </c>
       <c r="C19">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="D19">
-        <v>38.55452199495409</v>
+        <v>74.10779377473213</v>
       </c>
       <c r="E19">
-        <v>56.15064991740638</v>
+        <v>107.9302911586075</v>
       </c>
       <c r="F19">
-        <v>69.763333737067</v>
+        <v>134.0959887999911</v>
       </c>
       <c r="G19">
-        <v>222.4202195933326</v>
+        <v>427.5262903560464</v>
       </c>
       <c r="H19">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I19">
-        <v>641.2607612765274</v>
+        <v>1232.603020178236</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>503.0235483885243</v>
+        <v>966.8895750462054</v>
       </c>
       <c r="C20">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D20">
-        <v>127.2299225833485</v>
+        <v>244.555719456616</v>
       </c>
       <c r="E20">
-        <v>46.79220826450533</v>
+        <v>89.94190929883956</v>
       </c>
       <c r="F20">
-        <v>115.3778211805338</v>
+        <v>221.7741353230621</v>
       </c>
       <c r="G20">
-        <v>161.2546592051661</v>
+        <v>309.9565605081337</v>
       </c>
       <c r="H20">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I20">
-        <v>964.207703840176</v>
+        <v>1853.357322950279</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>552.5564599411227</v>
+        <v>1062.09954276108</v>
       </c>
       <c r="C21">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D21">
-        <v>77.10904398990819</v>
+        <v>148.2155875494643</v>
       </c>
       <c r="E21">
-        <v>34.7599261393468</v>
+        <v>66.81398976485227</v>
       </c>
       <c r="F21">
-        <v>100.6201928900005</v>
+        <v>193.4076761538332</v>
       </c>
       <c r="G21">
-        <v>150.1336482254994</v>
+        <v>288.5802459903312</v>
       </c>
       <c r="H21">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I21">
-        <v>925.7598571433581</v>
+        <v>1779.454575706694</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>431.8500444100334</v>
+        <v>830.083019494734</v>
       </c>
       <c r="C22">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D22">
-        <v>107.9526615858715</v>
+        <v>207.5018225692499</v>
       </c>
       <c r="E22">
-        <v>34.7599261393468</v>
+        <v>66.81398976485227</v>
       </c>
       <c r="F22">
-        <v>118.0610263242672</v>
+        <v>226.9316733538309</v>
       </c>
       <c r="G22">
-        <v>189.0571866543327</v>
+        <v>363.3973468026394</v>
       </c>
       <c r="H22">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I22">
-        <v>890.4758819913529</v>
+        <v>1711.633282151043</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>304.4110001242216</v>
+        <v>585.1253355681147</v>
       </c>
       <c r="C23">
-        <v>0.1735419139003825</v>
+        <v>0.3335745770181005</v>
       </c>
       <c r="D23">
-        <v>88.67540058839441</v>
+        <v>170.4479256818839</v>
       </c>
       <c r="E23">
-        <v>13.36920236128723</v>
+        <v>25.69768837109703</v>
       </c>
       <c r="F23">
-        <v>144.8930777616007</v>
+        <v>278.5070536615199</v>
       </c>
       <c r="G23">
-        <v>186.276933909416</v>
+        <v>358.0532681731887</v>
       </c>
       <c r="H23">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I23">
-        <v>748.2674507896593</v>
+        <v>1438.286537146591</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>310.1818247711263</v>
+        <v>596.217758991207</v>
       </c>
       <c r="C24">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D24">
-        <v>104.097209386376</v>
+        <v>200.0910431917767</v>
       </c>
       <c r="E24">
-        <v>20.05380354193085</v>
+        <v>38.54653255664552</v>
       </c>
       <c r="F24">
-        <v>134.1602571866672</v>
+        <v>257.8769015384442</v>
       </c>
       <c r="G24">
-        <v>166.8151646949993</v>
+        <v>320.6447177670346</v>
       </c>
       <c r="H24">
-        <v>5.234147065419532</v>
+        <v>10.06084555688425</v>
       </c>
       <c r="I24">
-        <v>740.6036567337782</v>
+        <v>1423.555531805646</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>291.9075467225949</v>
+        <v>561.0917514847481</v>
       </c>
       <c r="C25">
-        <v>0.1327085223944102</v>
+        <v>0.2550864412491357</v>
       </c>
       <c r="D25">
-        <v>69.39813959091735</v>
+        <v>133.3940287945178</v>
       </c>
       <c r="E25">
-        <v>17.3799630696734</v>
+        <v>33.40699488242613</v>
       </c>
       <c r="F25">
-        <v>84.52096202760039</v>
+        <v>162.4624479692199</v>
       </c>
       <c r="G25">
-        <v>122.3311207763329</v>
+        <v>235.1394596958255</v>
       </c>
       <c r="H25">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I25">
-        <v>589.1598720864596</v>
+        <v>1132.456999639243</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>337.5932418439237</v>
+        <v>648.9067702508947</v>
       </c>
       <c r="C26">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D26">
-        <v>107.9526615858715</v>
+        <v>207.5018225692499</v>
       </c>
       <c r="E26">
-        <v>14.70612259741596</v>
+        <v>28.26745720820673</v>
       </c>
       <c r="F26">
-        <v>131.4770520429339</v>
+        <v>252.7193635076754</v>
       </c>
       <c r="G26">
-        <v>136.2323845009162</v>
+        <v>261.8598528430783</v>
       </c>
       <c r="H26">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I26">
-        <v>736.7564994485625</v>
+        <v>1416.160696544841</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>327.0133966579317</v>
+        <v>628.5706606418928</v>
       </c>
       <c r="C27">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D27">
-        <v>84.81994838889904</v>
+        <v>163.0371463044106</v>
       </c>
       <c r="E27">
-        <v>13.36920236128723</v>
+        <v>25.69768837109703</v>
       </c>
       <c r="F27">
-        <v>80.49615431200036</v>
+        <v>154.7261409230667</v>
       </c>
       <c r="G27">
-        <v>147.3533954805827</v>
+        <v>283.2361673608808</v>
       </c>
       <c r="H27">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I27">
-        <v>656.6231953606592</v>
+        <v>1262.132010244142</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>360.6765404315422</v>
+        <v>693.2764639432637</v>
       </c>
       <c r="C28">
-        <v>0.112291826641424</v>
+        <v>0.2158423733646533</v>
       </c>
       <c r="D28">
-        <v>142.6517313813301</v>
+        <v>274.198836966509</v>
       </c>
       <c r="E28">
-        <v>22.72764401418829</v>
+        <v>43.68607023086494</v>
       </c>
       <c r="F28">
-        <v>119.4026288961338</v>
+        <v>229.5104423692154</v>
       </c>
       <c r="G28">
-        <v>130.6718790110828</v>
+        <v>251.1716955841772</v>
       </c>
       <c r="H28">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I28">
-        <v>783.2215783148114</v>
+        <v>1505.473812209907</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>517.450610005786</v>
+        <v>994.6206336039357</v>
       </c>
       <c r="C29">
-        <v>0.122500174517917</v>
+        <v>0.2354644073068945</v>
       </c>
       <c r="D29">
-        <v>158.0735401793118</v>
+        <v>303.8419544764017</v>
       </c>
       <c r="E29">
-        <v>26.73840472257447</v>
+        <v>51.39537674219405</v>
       </c>
       <c r="F29">
-        <v>127.4522443273339</v>
+        <v>244.9830564615221</v>
       </c>
       <c r="G29">
-        <v>88.96808783733304</v>
+        <v>171.0105161424185</v>
       </c>
       <c r="H29">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I29">
-        <v>927.528965689223</v>
+        <v>1782.855077761919</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>586.7005057686418</v>
+        <v>1127.729714681042</v>
       </c>
       <c r="C30">
-        <v>0.1429168702709032</v>
+        <v>0.2747084751913769</v>
       </c>
       <c r="D30">
-        <v>154.2180879798164</v>
+        <v>296.4311750989285</v>
       </c>
       <c r="E30">
-        <v>30.74916543096064</v>
+        <v>59.10468325352316</v>
       </c>
       <c r="F30">
-        <v>83.17935945573366</v>
+        <v>159.8836789538354</v>
       </c>
       <c r="G30">
-        <v>63.94581313308307</v>
+        <v>122.9138084773634</v>
       </c>
       <c r="H30">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I30">
-        <v>927.6594270808724</v>
+        <v>1783.105844868025</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>550.1519496715792</v>
+        <v>1057.477699668125</v>
       </c>
       <c r="C31">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D31">
-        <v>165.7844445783026</v>
+        <v>318.6635132313481</v>
       </c>
       <c r="E31">
-        <v>42.78144755611915</v>
+        <v>82.2326027875105</v>
       </c>
       <c r="F31">
-        <v>64.39692344960028</v>
+        <v>123.7809127384533</v>
       </c>
       <c r="G31">
-        <v>102.8693515619163</v>
+        <v>197.7309092896715</v>
       </c>
       <c r="H31">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I31">
-        <v>929.5756316732288</v>
+        <v>1786.789088425787</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>350.0966952455503</v>
+        <v>672.9403543342612</v>
       </c>
       <c r="C32">
-        <v>0.0816667830119447</v>
+        <v>0.1569762715379296</v>
       </c>
       <c r="D32">
-        <v>158.0735401793118</v>
+        <v>303.8419544764017</v>
       </c>
       <c r="E32">
-        <v>36.09684637547554</v>
+        <v>69.38375860196199</v>
       </c>
       <c r="F32">
-        <v>56.34730801840024</v>
+        <v>108.3082986461466</v>
       </c>
       <c r="G32">
-        <v>116.7706152864995</v>
+        <v>224.4513024369243</v>
       </c>
       <c r="I32">
-        <v>717.4666718882493</v>
+        <v>1379.082644767234</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>221.2149447980126</v>
+        <v>425.2095645518683</v>
       </c>
       <c r="C33">
-        <v>0.122500174517917</v>
+        <v>0.2354644073068945</v>
       </c>
       <c r="D33">
-        <v>80.96449618940359</v>
+        <v>155.6263669269374</v>
       </c>
       <c r="E33">
-        <v>42.78144755611915</v>
+        <v>82.2326027875105</v>
       </c>
       <c r="F33">
-        <v>30.85685915293346</v>
+        <v>59.31168735384219</v>
       </c>
       <c r="G33">
-        <v>100.0890988169996</v>
+        <v>192.3868306602208</v>
       </c>
       <c r="I33">
-        <v>476.0293466879863</v>
+        <v>915.002516687686</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>187.0708989704932</v>
+        <v>359.579392631906</v>
       </c>
       <c r="C34">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D34">
-        <v>38.55452199495409</v>
+        <v>74.10779377473213</v>
       </c>
       <c r="E34">
-        <v>13.36920236128723</v>
+        <v>25.69768837109703</v>
       </c>
       <c r="F34">
-        <v>26.83205143733345</v>
+        <v>51.57538030768886</v>
       </c>
       <c r="G34">
-        <v>86.18783509241635</v>
+        <v>165.6664375129679</v>
       </c>
       <c r="H34">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I34">
-        <v>353.8306839800928</v>
+        <v>680.1176620216157</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>148.1178326038867</v>
+        <v>284.7055345260337</v>
       </c>
       <c r="C35">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D35">
-        <v>42.40997419444952</v>
+        <v>81.51857315220531</v>
       </c>
       <c r="E35">
-        <v>18.71688330580213</v>
+        <v>35.97676371953582</v>
       </c>
       <c r="F35">
-        <v>34.8816668685335</v>
+        <v>67.04799439999556</v>
       </c>
       <c r="G35">
-        <v>91.74834058224971</v>
+        <v>176.3545947718692</v>
       </c>
       <c r="H35">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I35">
-        <v>337.7112883742831</v>
+        <v>649.1336740607478</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>76.46342657148685</v>
+        <v>146.974610355972</v>
       </c>
       <c r="C36">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D36">
-        <v>23.13271319697247</v>
+        <v>44.46467626483929</v>
       </c>
       <c r="E36">
-        <v>9.358441652901066</v>
+        <v>17.98838185976791</v>
       </c>
       <c r="F36">
-        <v>16.09923086240007</v>
+        <v>30.94522818461332</v>
       </c>
       <c r="G36">
-        <v>44.48404391866652</v>
+        <v>85.50525807120924</v>
       </c>
       <c r="I36">
-        <v>169.6093146375624</v>
+        <v>326.0155089739974</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>46.64749922914614</v>
+        <v>89.66375600332881</v>
       </c>
       <c r="C37">
-        <v>0.09187513088843778</v>
+        <v>0.1765983054801709</v>
       </c>
       <c r="D37">
-        <v>7.710904398990817</v>
+        <v>14.82155875494642</v>
       </c>
       <c r="E37">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F37">
-        <v>17.44083343426675</v>
+        <v>33.52399719999778</v>
       </c>
       <c r="G37">
-        <v>27.80252744916657</v>
+        <v>53.4407862945058</v>
       </c>
       <c r="H37">
-        <v>1.744715688473177</v>
+        <v>3.353615185628084</v>
       </c>
       <c r="I37">
-        <v>108.1229565115755</v>
+        <v>207.8291559294356</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>22.60239653370999</v>
+        <v>43.44532507377785</v>
       </c>
       <c r="C38">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D38">
-        <v>7.710904398990817</v>
+        <v>14.82155875494642</v>
       </c>
       <c r="E38">
-        <v>6.684601180643616</v>
+        <v>12.84884418554851</v>
       </c>
       <c r="F38">
-        <v>12.07442314680006</v>
+        <v>23.20892113845998</v>
       </c>
       <c r="G38">
-        <v>30.58278019408323</v>
+        <v>58.78486492395636</v>
       </c>
       <c r="I38">
-        <v>79.75718893299265</v>
+        <v>153.3057344161115</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>17.31247394071403</v>
+        <v>33.27727026927664</v>
       </c>
       <c r="C39">
-        <v>0.03062504362947926</v>
+        <v>0.05886610182672362</v>
       </c>
       <c r="F39">
-        <v>6.708012859333362</v>
+        <v>12.89384507692222</v>
       </c>
       <c r="G39">
-        <v>30.58278019408323</v>
+        <v>58.78486492395636</v>
       </c>
       <c r="I39">
-        <v>54.63389203776009</v>
+        <v>105.0148463719819</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>16.83157188680531</v>
+        <v>32.35290165068565</v>
       </c>
       <c r="C40">
-        <v>0.04083339150597235</v>
+        <v>0.07848813576896482</v>
       </c>
       <c r="E40">
-        <v>2.673840472257447</v>
+        <v>5.139537674219406</v>
       </c>
       <c r="F40">
-        <v>12.07442314680006</v>
+        <v>23.20892113845998</v>
       </c>
       <c r="G40">
-        <v>58.38530764324977</v>
+        <v>112.2256512184622</v>
       </c>
       <c r="I40">
-        <v>90.00597654061855</v>
+        <v>173.0054998175962</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>37.02945815097166</v>
+        <v>71.17638363150841</v>
       </c>
       <c r="C41">
-        <v>0.02041669575298618</v>
+        <v>0.03924406788448241</v>
       </c>
       <c r="D41">
-        <v>15.42180879798163</v>
+        <v>29.64311750989285</v>
       </c>
       <c r="E41">
-        <v>5.347680944514893</v>
+        <v>10.27907534843881</v>
       </c>
       <c r="F41">
-        <v>24.14884629360011</v>
+        <v>46.41784227691996</v>
       </c>
       <c r="G41">
-        <v>111.2101097966663</v>
+        <v>213.7631451780232</v>
       </c>
       <c r="I41">
-        <v>193.1783206794876</v>
+        <v>371.3188080126677</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>82.23425121839158</v>
+        <v>158.0670337790641</v>
       </c>
       <c r="C42">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D42">
-        <v>34.69906979545868</v>
+        <v>66.6970143972589</v>
       </c>
       <c r="E42">
-        <v>18.71688330580213</v>
+        <v>35.97676371953582</v>
       </c>
       <c r="F42">
-        <v>33.54006429666681</v>
+        <v>64.46922538461105</v>
       </c>
       <c r="G42">
-        <v>141.7928899907495</v>
+        <v>272.5480101019796</v>
       </c>
       <c r="H42">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I42">
-        <v>314.533840071274</v>
+        <v>604.5830099573591</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>273.6332686740633</v>
+        <v>525.9657439782894</v>
       </c>
       <c r="C43">
-        <v>0.05104173938246544</v>
+        <v>0.09811016971120602</v>
       </c>
       <c r="D43">
-        <v>46.26542639394494</v>
+        <v>88.92935252967858</v>
       </c>
       <c r="E43">
-        <v>60.16141062579257</v>
+        <v>115.6395976699366</v>
       </c>
       <c r="F43">
-        <v>87.20416717133374</v>
+        <v>167.6199859999888</v>
       </c>
       <c r="G43">
-        <v>216.8597141034992</v>
+        <v>416.8381330971453</v>
       </c>
       <c r="I43">
-        <v>684.1750287080162</v>
+        <v>1315.09092344475</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>494.8482134720758</v>
+        <v>951.1753085301581</v>
       </c>
       <c r="C44">
-        <v>0.06125008725895852</v>
+        <v>0.1177322036534472</v>
       </c>
       <c r="D44">
-        <v>115.6635659848623</v>
+        <v>222.3233813241963</v>
       </c>
       <c r="E44">
-        <v>48.12912850063405</v>
+        <v>92.51167813594925</v>
       </c>
       <c r="F44">
-        <v>107.3282057493338</v>
+        <v>206.3015212307554</v>
       </c>
       <c r="G44">
-        <v>197.3979448890826</v>
+        <v>379.4295826909911</v>
       </c>
       <c r="H44">
-        <v>10.46829413083906</v>
+        <v>20.1216911137685</v>
       </c>
       <c r="I44">
-        <v>973.8966028140866</v>
+        <v>1871.980895229472</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>541.4957127012217</v>
+        <v>1040.839064533486</v>
       </c>
       <c r="C45">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D45">
-        <v>107.9526615858715</v>
+        <v>207.5018225692499</v>
       </c>
       <c r="E45">
-        <v>32.08608566708936</v>
+        <v>61.67445209063285</v>
       </c>
       <c r="F45">
-        <v>85.86256459946704</v>
+        <v>165.0412169846044</v>
       </c>
       <c r="G45">
-        <v>144.5731427356661</v>
+        <v>277.8920887314301</v>
       </c>
       <c r="H45">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I45">
-        <v>919.0511135219733</v>
+        <v>1766.559325991338</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>407.8049417145971</v>
+        <v>783.8645885651838</v>
       </c>
       <c r="C46">
-        <v>0.1531252181473963</v>
+        <v>0.294330509133618</v>
       </c>
       <c r="D46">
-        <v>111.8081137853668</v>
+        <v>214.9126019467231</v>
       </c>
       <c r="E46">
-        <v>29.41224519483192</v>
+        <v>56.53491441641345</v>
       </c>
       <c r="F46">
-        <v>103.3033980337338</v>
+        <v>198.5652141846022</v>
       </c>
       <c r="G46">
-        <v>200.1781976339993</v>
+        <v>384.7736613204416</v>
       </c>
       <c r="H46">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I46">
-        <v>859.6388843345692</v>
+        <v>1652.35977168501</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>308.7391186094002</v>
+        <v>593.4446531354337</v>
       </c>
       <c r="C47">
-        <v>0.1020834787649309</v>
+        <v>0.196220339422412</v>
       </c>
       <c r="D47">
-        <v>107.9526615858715</v>
+        <v>207.5018225692499</v>
       </c>
       <c r="E47">
-        <v>21.39072377805957</v>
+        <v>41.11630139375525</v>
       </c>
       <c r="F47">
-        <v>127.4522443273339</v>
+        <v>244.9830564615221</v>
       </c>
       <c r="G47">
-        <v>197.3979448890826</v>
+        <v>379.4295826909911</v>
       </c>
       <c r="H47">
-        <v>8.723578442365886</v>
+        <v>16.76807592814042</v>
       </c>
       <c r="I47">
-        <v>771.7583551108786</v>
+        <v>1483.439712518515</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>300.0828816390431</v>
+        <v>576.8060180007956</v>
       </c>
       <c r="C48">
-        <v>0.07145843513545161</v>
+        <v>0.1373542375956885</v>
       </c>
       <c r="D48">
-        <v>84.81994838889904</v>
+        <v>163.0371463044106</v>
       </c>
       <c r="E48">
-        <v>22.72764401418829</v>
+        <v>43.68607023086494</v>
       </c>
       <c r="F48">
-        <v>122.0858340398672</v>
+        <v>234.6679803999843</v>
       </c>
       <c r="G48">
-        <v>141.7928899907495</v>
+        <v>272.5480101019796</v>
       </c>
       <c r="H48">
-        <v>6.978862753892709</v>
+        <v>13.41446074251233</v>
       </c>
       <c r="I48">
-        <v>678.5595192617753</v>
+        <v>1304.297040018143</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>309.7009227172178</v>
+        <v>595.2933903726157</v>
       </c>
       <c r="C49">
-        <v>0.1633335660238894</v>
+        <v>0.3139525430758593</v>
       </c>
       <c r="D49">
-        <v>84.81994838889904</v>
+        <v>163.0371463044106</v>
       </c>
       <c r="E49">
-        <v>17.3799630696734</v>
+        <v>33.40699488242613</v>
       </c>
       <c r="F49">
-        <v>100.6201928900005</v>
+        <v>193.4076761538332</v>
       </c>
       <c r="G49">
-        <v>113.9903625415829</v>
+        <v>219.1072238074738</v>
       </c>
       <c r="H49">
-        <v>3.489431376946355</v>
+        <v>6.707230371256167</v>
       </c>
       <c r="I49">
-        <v>630.1641545503439</v>
+        <v>1211.273614435092</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_NOx.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>276.0061027604154</v>
+        <v>160.8965808339786</v>
       </c>
       <c r="C2">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D2">
-        <v>53.60694615106792</v>
+        <v>31.24994070201788</v>
       </c>
       <c r="E2">
-        <v>12.39253009297763</v>
+        <v>7.224172581332695</v>
       </c>
       <c r="F2">
-        <v>108.8144121912221</v>
+        <v>63.43289764945659</v>
       </c>
       <c r="G2">
-        <v>122.4143618764801</v>
+        <v>71.36093033419611</v>
       </c>
       <c r="H2">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I2">
-        <v>576.0165224928985</v>
+        <v>335.7863759028371</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>274.1487265641811</v>
+        <v>159.8138312994296</v>
       </c>
       <c r="C3">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D3">
-        <v>113.1702196522544</v>
+        <v>65.97209703759327</v>
       </c>
       <c r="E3">
-        <v>12.39253009297763</v>
+        <v>7.224172581332695</v>
       </c>
       <c r="F3">
-        <v>88.08785748813213</v>
+        <v>51.35044095432196</v>
       </c>
       <c r="G3">
-        <v>105.233398806097</v>
+        <v>61.34536116448443</v>
       </c>
       <c r="H3">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I3">
-        <v>597.1547310479523</v>
+        <v>348.1088044558605</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>290.4936370910428</v>
+        <v>169.3420272034606</v>
       </c>
       <c r="C4">
-        <v>0.1577098055170788</v>
+        <v>0.09193625872003355</v>
       </c>
       <c r="D4">
-        <v>89.34491025177982</v>
+        <v>52.08323450336313</v>
       </c>
       <c r="E4">
-        <v>15.49066261622204</v>
+        <v>9.030215726665867</v>
       </c>
       <c r="F4">
-        <v>79.79723560689619</v>
+        <v>46.51745827626814</v>
       </c>
       <c r="G4">
-        <v>96.64291727090537</v>
+        <v>56.33757657962855</v>
       </c>
       <c r="H4">
-        <v>9.434001596953768</v>
+        <v>5.49951100845677</v>
       </c>
       <c r="I4">
-        <v>581.3610742393171</v>
+        <v>338.9019595565631</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>381.505070706523</v>
+        <v>222.3967543963607</v>
       </c>
       <c r="C5">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D5">
-        <v>145.9300200779071</v>
+        <v>85.06928302215982</v>
       </c>
       <c r="E5">
-        <v>21.68692766271085</v>
+        <v>12.64230201733222</v>
       </c>
       <c r="F5">
-        <v>82.90621881235967</v>
+        <v>48.32982678053834</v>
       </c>
       <c r="G5">
-        <v>55.83812997874531</v>
+        <v>32.55059980156317</v>
       </c>
       <c r="H5">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I5">
-        <v>691.9647092117286</v>
+        <v>403.3778769978449</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>493.6905929590738</v>
+        <v>287.7948262831191</v>
       </c>
       <c r="C6">
-        <v>0.03942745137926971</v>
+        <v>0.02298406468000839</v>
       </c>
       <c r="D6">
-        <v>125.0828743524918</v>
+        <v>72.91652830470845</v>
       </c>
       <c r="E6">
-        <v>25.81777102703674</v>
+        <v>15.05035954444311</v>
       </c>
       <c r="F6">
-        <v>69.43395825535124</v>
+        <v>40.47622992870085</v>
       </c>
       <c r="G6">
-        <v>60.13337074634111</v>
+        <v>35.0544920939911</v>
       </c>
       <c r="H6">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I6">
-        <v>778.2411383332258</v>
+        <v>453.6723535089812</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>418.6525946312088</v>
+        <v>244.0517450873403</v>
       </c>
       <c r="C7">
-        <v>0.03942745137926971</v>
+        <v>0.02298406468000839</v>
       </c>
       <c r="D7">
-        <v>74.45409187648319</v>
+        <v>43.40269541946929</v>
       </c>
       <c r="E7">
-        <v>32.01403607352555</v>
+        <v>18.66244583510947</v>
       </c>
       <c r="F7">
-        <v>48.70740355226132</v>
+        <v>28.39377323356628</v>
       </c>
       <c r="G7">
-        <v>55.83812997874531</v>
+        <v>32.55059980156317</v>
       </c>
       <c r="H7">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I7">
-        <v>636.4442561328561</v>
+        <v>371.0124655906262</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>296.4372409189924</v>
+        <v>172.8068257140175</v>
       </c>
       <c r="C8">
-        <v>0.09462588331024731</v>
+        <v>0.05516175523202013</v>
       </c>
       <c r="D8">
-        <v>50.62878247600858</v>
+        <v>29.5138328852391</v>
       </c>
       <c r="E8">
-        <v>19.62150598054791</v>
+        <v>11.43827325377677</v>
       </c>
       <c r="F8">
-        <v>27.98084884917138</v>
+        <v>16.31131653843169</v>
       </c>
       <c r="G8">
-        <v>92.34767650330956</v>
+        <v>53.83368428720061</v>
       </c>
       <c r="H8">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I8">
-        <v>489.8061096390412</v>
+        <v>285.5303832934568</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>184.2517186664415</v>
+        <v>107.408753827259</v>
       </c>
       <c r="C9">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D9">
-        <v>53.60694615106792</v>
+        <v>31.24994070201788</v>
       </c>
       <c r="E9">
-        <v>29.9486143913626</v>
+        <v>17.45841707155402</v>
       </c>
       <c r="F9">
-        <v>29.01717658432588</v>
+        <v>16.91543937318843</v>
       </c>
       <c r="G9">
-        <v>98.79053765470323</v>
+        <v>57.58952272584255</v>
       </c>
       <c r="H9">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I9">
-        <v>397.0100209034068</v>
+        <v>231.4352990072574</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>149.7045214164838</v>
+        <v>87.26961248464787</v>
       </c>
       <c r="C10">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D10">
-        <v>23.82530940047463</v>
+        <v>13.88886253423017</v>
       </c>
       <c r="E10">
-        <v>8.261686728651753</v>
+        <v>4.816115054221797</v>
       </c>
       <c r="F10">
-        <v>17.61757149762642</v>
+        <v>10.2700881908644</v>
       </c>
       <c r="G10">
-        <v>60.13337074634111</v>
+        <v>35.0544920939911</v>
       </c>
       <c r="I10">
-        <v>259.6292001826121</v>
+        <v>151.3497353002514</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>98.44093840041727</v>
+        <v>57.38572533109598</v>
       </c>
       <c r="C11">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D11">
-        <v>8.934491025177984</v>
+        <v>5.208323450336314</v>
       </c>
       <c r="E11">
-        <v>13.4252409340591</v>
+        <v>7.82618696311042</v>
       </c>
       <c r="F11">
-        <v>12.43593282185395</v>
+        <v>7.249474017080751</v>
       </c>
       <c r="G11">
-        <v>64.4286115139369</v>
+        <v>37.55838438641905</v>
       </c>
       <c r="I11">
-        <v>197.6888711662727</v>
+        <v>115.2418845868505</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>55.72128588702869</v>
+        <v>32.48248603646943</v>
       </c>
       <c r="C12">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D12">
-        <v>5.956327350118658</v>
+        <v>3.472215633557542</v>
       </c>
       <c r="E12">
-        <v>8.261686728651753</v>
+        <v>4.816115054221797</v>
       </c>
       <c r="F12">
-        <v>6.217966410926975</v>
+        <v>3.624737008540376</v>
       </c>
       <c r="G12">
-        <v>19.32858345418107</v>
+        <v>11.26751531592571</v>
       </c>
       <c r="H12">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I12">
-        <v>96.90453375724036</v>
+        <v>56.49008479491841</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>33.80424677146408</v>
+        <v>19.70604152879146</v>
       </c>
       <c r="C13">
-        <v>0.03154196110341578</v>
+        <v>0.01838725174400671</v>
       </c>
       <c r="D13">
-        <v>5.956327350118658</v>
+        <v>3.472215633557542</v>
       </c>
       <c r="E13">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F13">
-        <v>6.217966410926975</v>
+        <v>3.624737008540376</v>
       </c>
       <c r="G13">
-        <v>17.18096307038318</v>
+        <v>10.01556916971174</v>
       </c>
       <c r="I13">
-        <v>68.35459976940366</v>
+        <v>39.84702250123375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>19.68818768008346</v>
+        <v>11.47714506621919</v>
       </c>
       <c r="C14">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D14">
-        <v>8.934491025177984</v>
+        <v>5.208323450336314</v>
       </c>
       <c r="E14">
-        <v>4.130843364325877</v>
+        <v>2.408057527110898</v>
       </c>
       <c r="F14">
-        <v>9.326949616390465</v>
+        <v>5.437105512810563</v>
       </c>
       <c r="G14">
-        <v>32.21430575696845</v>
+        <v>18.77919219320952</v>
       </c>
       <c r="I14">
-        <v>74.34209038460136</v>
+        <v>43.3374046273025</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>9.286880981171448</v>
+        <v>5.413747672744902</v>
       </c>
       <c r="C15">
-        <v>0.03942745137926971</v>
+        <v>0.02298406468000839</v>
       </c>
       <c r="D15">
-        <v>8.934491025177984</v>
+        <v>5.208323450336314</v>
       </c>
       <c r="E15">
-        <v>1.032710841081469</v>
+        <v>0.6020143817777246</v>
       </c>
       <c r="F15">
-        <v>9.326949616390465</v>
+        <v>5.437105512810563</v>
       </c>
       <c r="G15">
-        <v>15.03334268658528</v>
+        <v>8.763623023497775</v>
       </c>
       <c r="I15">
-        <v>43.65380260178591</v>
+        <v>25.44779810584729</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>5.200653349456011</v>
+        <v>3.031698696737148</v>
       </c>
       <c r="C16">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D16">
-        <v>2.978163675059329</v>
+        <v>1.736107816778771</v>
       </c>
       <c r="F16">
-        <v>3.108983205463487</v>
+        <v>1.812368504270188</v>
       </c>
       <c r="G16">
-        <v>25.77144460557476</v>
+        <v>15.02335375456761</v>
       </c>
       <c r="I16">
-        <v>37.08290130638115</v>
+        <v>21.61731921116172</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>25.26031626878633</v>
+        <v>14.72539366986615</v>
       </c>
       <c r="D17">
-        <v>5.956327350118658</v>
+        <v>3.472215633557542</v>
       </c>
       <c r="E17">
-        <v>4.130843364325877</v>
+        <v>2.408057527110898</v>
       </c>
       <c r="F17">
-        <v>8.290621881235962</v>
+        <v>4.832982678053832</v>
       </c>
       <c r="G17">
-        <v>53.69050959494743</v>
+        <v>31.29865365534917</v>
       </c>
       <c r="I17">
-        <v>97.32861845941426</v>
+        <v>56.73730316393759</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>60.92193923648474</v>
+        <v>35.51418473320658</v>
       </c>
       <c r="C18">
-        <v>0.03154196110341578</v>
+        <v>0.01838725174400671</v>
       </c>
       <c r="D18">
-        <v>11.91265470023732</v>
+        <v>6.944431267115084</v>
       </c>
       <c r="E18">
-        <v>12.39253009297763</v>
+        <v>7.224172581332695</v>
       </c>
       <c r="F18">
-        <v>26.94452111401689</v>
+        <v>15.70719370367496</v>
       </c>
       <c r="G18">
-        <v>120.2667414926822</v>
+        <v>70.1089841879822</v>
       </c>
       <c r="I18">
-        <v>232.4699285975022</v>
+        <v>135.5173537250555</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>192.4241739298724</v>
+        <v>112.1728517792744</v>
       </c>
       <c r="C19">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="D19">
-        <v>29.78163675059328</v>
+        <v>17.36107816778772</v>
       </c>
       <c r="E19">
-        <v>43.37385532542171</v>
+        <v>25.28460403466443</v>
       </c>
       <c r="F19">
-        <v>53.88904222803379</v>
+        <v>31.41438740734993</v>
       </c>
       <c r="G19">
-        <v>171.8096307038317</v>
+        <v>100.1556916971174</v>
       </c>
       <c r="H19">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I19">
-        <v>495.3451389501321</v>
+        <v>288.7593368143405</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>388.5631002522136</v>
+        <v>226.5112026276468</v>
       </c>
       <c r="C20">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D20">
-        <v>98.27940127695781</v>
+        <v>57.29155795369945</v>
       </c>
       <c r="E20">
-        <v>36.14487943785142</v>
+        <v>21.07050336222036</v>
       </c>
       <c r="F20">
-        <v>89.12418522328662</v>
+        <v>51.95456378907873</v>
       </c>
       <c r="G20">
-        <v>124.561982260278</v>
+        <v>72.61287648041012</v>
       </c>
       <c r="H20">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I20">
-        <v>744.8071484753458</v>
+        <v>434.1821516693487</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>426.8250498946397</v>
+        <v>248.8158430393557</v>
       </c>
       <c r="C21">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D21">
-        <v>59.56327350118656</v>
+        <v>34.72215633557544</v>
       </c>
       <c r="E21">
-        <v>26.85048186811819</v>
+        <v>15.65237392622084</v>
       </c>
       <c r="F21">
-        <v>77.72458013658719</v>
+        <v>45.30921260675471</v>
       </c>
       <c r="G21">
-        <v>115.9715007250864</v>
+        <v>67.60509189555424</v>
       </c>
       <c r="H21">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I21">
-        <v>715.1079136017557</v>
+        <v>416.8691093244342</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>333.5847648436784</v>
+        <v>194.461816404997</v>
       </c>
       <c r="C22">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D22">
-        <v>83.38858290166122</v>
+        <v>48.61101886980559</v>
       </c>
       <c r="E22">
-        <v>26.85048186811819</v>
+        <v>15.65237392622084</v>
       </c>
       <c r="F22">
-        <v>91.1968406935956</v>
+        <v>53.16280945859216</v>
       </c>
       <c r="G22">
-        <v>146.0381860982569</v>
+        <v>85.13233794254984</v>
       </c>
       <c r="H22">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I22">
-        <v>687.852627406494</v>
+        <v>400.9807564416151</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>235.1438264432612</v>
+        <v>137.076091073901</v>
       </c>
       <c r="C23">
-        <v>0.1340533346895171</v>
+        <v>0.0781458199120285</v>
       </c>
       <c r="D23">
-        <v>68.49776452636455</v>
+        <v>39.93047978591171</v>
       </c>
       <c r="E23">
-        <v>10.3271084108147</v>
+        <v>6.020143817777248</v>
       </c>
       <c r="F23">
-        <v>111.9233953966855</v>
+        <v>65.24526615372677</v>
       </c>
       <c r="G23">
-        <v>143.890565714459</v>
+        <v>83.88039179633584</v>
       </c>
       <c r="H23">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I23">
-        <v>578.0030009093776</v>
+        <v>336.9443850262419</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>239.6015293142233</v>
+        <v>139.6746899568186</v>
       </c>
       <c r="C24">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D24">
-        <v>80.41041922660189</v>
+        <v>46.8749110530268</v>
       </c>
       <c r="E24">
-        <v>15.49066261622204</v>
+        <v>9.030215726665867</v>
       </c>
       <c r="F24">
-        <v>103.6327735154496</v>
+        <v>60.41228347567292</v>
       </c>
       <c r="G24">
-        <v>128.8572230278738</v>
+        <v>75.1167687728381</v>
       </c>
       <c r="H24">
-        <v>4.043143541551615</v>
+        <v>2.356933289338616</v>
       </c>
       <c r="I24">
-        <v>572.0830641835773</v>
+        <v>333.4933831519768</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>225.4854702228427</v>
+        <v>131.4457934942463</v>
       </c>
       <c r="C25">
-        <v>0.1025113735861012</v>
+        <v>0.05975856816802181</v>
       </c>
       <c r="D25">
-        <v>53.60694615106792</v>
+        <v>31.24994070201788</v>
       </c>
       <c r="E25">
-        <v>13.4252409340591</v>
+        <v>7.82618696311042</v>
       </c>
       <c r="F25">
-        <v>65.28864731473327</v>
+        <v>38.05973858967395</v>
       </c>
       <c r="G25">
-        <v>94.49529688710747</v>
+        <v>55.08563043341459</v>
       </c>
       <c r="H25">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I25">
-        <v>455.0995419110977</v>
+        <v>265.2983376101902</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>260.7756179512941</v>
+        <v>152.0180346506769</v>
       </c>
       <c r="C26">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D26">
-        <v>83.38858290166122</v>
+        <v>48.61101886980559</v>
       </c>
       <c r="E26">
-        <v>11.35981925189616</v>
+        <v>6.622158199554971</v>
       </c>
       <c r="F26">
-        <v>101.5601180451406</v>
+        <v>59.20403780615949</v>
       </c>
       <c r="G26">
-        <v>105.233398806097</v>
+        <v>61.34536116448443</v>
       </c>
       <c r="H26">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I26">
-        <v>569.1113079572727</v>
+        <v>331.761010530131</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>252.6031626878632</v>
+        <v>147.2539366986614</v>
       </c>
       <c r="C27">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D27">
-        <v>65.51960085130521</v>
+        <v>38.19437196913296</v>
       </c>
       <c r="E27">
-        <v>10.3271084108147</v>
+        <v>6.020143817777248</v>
       </c>
       <c r="F27">
-        <v>62.17966410926974</v>
+        <v>36.24737008540375</v>
       </c>
       <c r="G27">
-        <v>113.8238803412885</v>
+        <v>66.35314574934029</v>
       </c>
       <c r="H27">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I27">
-        <v>507.2119293504492</v>
+        <v>295.6770316833628</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>278.6064294351434</v>
+        <v>162.4124301823472</v>
       </c>
       <c r="C28">
-        <v>0.08674039303439338</v>
+        <v>0.05056494229601845</v>
       </c>
       <c r="D28">
-        <v>110.1920559771951</v>
+        <v>64.23598922081453</v>
       </c>
       <c r="E28">
-        <v>17.55608429838497</v>
+        <v>10.23424449022132</v>
       </c>
       <c r="F28">
-        <v>92.23316842875012</v>
+        <v>53.76693229334891</v>
       </c>
       <c r="G28">
-        <v>100.9381580385012</v>
+        <v>58.8414688720565</v>
       </c>
       <c r="H28">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I28">
-        <v>605.0034946264115</v>
+        <v>352.6842077202027</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>399.707357429619</v>
+        <v>233.0076998349407</v>
       </c>
       <c r="C29">
-        <v>0.09462588331024731</v>
+        <v>0.05516175523202013</v>
       </c>
       <c r="D29">
-        <v>122.1047106774324</v>
+        <v>71.18042048792958</v>
       </c>
       <c r="E29">
-        <v>20.65421682162939</v>
+        <v>12.0402876355545</v>
       </c>
       <c r="F29">
-        <v>98.45113483967711</v>
+        <v>57.39166930188927</v>
       </c>
       <c r="G29">
-        <v>68.72385228153273</v>
+        <v>40.06227667884696</v>
       </c>
       <c r="H29">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I29">
-        <v>716.4744705024535</v>
+        <v>417.6657378432907</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>453.1997918811667</v>
+        <v>264.1908864299513</v>
       </c>
       <c r="C30">
-        <v>0.1103968638619552</v>
+        <v>0.0643553811040235</v>
       </c>
       <c r="D30">
-        <v>119.1265470023731</v>
+        <v>69.44431267115088</v>
       </c>
       <c r="E30">
-        <v>23.75234934487379</v>
+        <v>13.84633078088767</v>
       </c>
       <c r="F30">
-        <v>64.25231957957874</v>
+        <v>37.45561575491722</v>
       </c>
       <c r="G30">
-        <v>49.39526882735161</v>
+        <v>28.79476136292127</v>
       </c>
       <c r="H30">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I30">
-        <v>716.5752460684587</v>
+        <v>417.7244845298301</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>424.9676736984052</v>
+        <v>247.7330935048068</v>
       </c>
       <c r="C31">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D31">
-        <v>128.0610380275511</v>
+        <v>74.65263612148715</v>
       </c>
       <c r="E31">
-        <v>33.04674691460701</v>
+        <v>19.26446021688719</v>
       </c>
       <c r="F31">
-        <v>49.7437312874158</v>
+        <v>28.997896068323</v>
       </c>
       <c r="G31">
-        <v>79.46195420052219</v>
+        <v>46.32200740991681</v>
       </c>
       <c r="H31">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I31">
-        <v>718.055428058961</v>
+        <v>418.5873503103401</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>270.4339741717126</v>
+        <v>157.6483322303316</v>
       </c>
       <c r="C32">
-        <v>0.06308392220683155</v>
+        <v>0.03677450348801342</v>
       </c>
       <c r="D32">
-        <v>122.1047106774324</v>
+        <v>71.18042048792958</v>
       </c>
       <c r="E32">
-        <v>27.88319270919967</v>
+        <v>16.25438830799856</v>
       </c>
       <c r="F32">
-        <v>43.52576487648884</v>
+        <v>25.37315905978263</v>
       </c>
       <c r="G32">
-        <v>90.20005611951167</v>
+        <v>52.58173814098665</v>
       </c>
       <c r="I32">
-        <v>554.210782476552</v>
+        <v>323.0748127305171</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>170.8786100535545</v>
+        <v>99.61295717850629</v>
       </c>
       <c r="C33">
-        <v>0.09462588331024731</v>
+        <v>0.05516175523202013</v>
       </c>
       <c r="D33">
-        <v>62.54143717624591</v>
+        <v>36.45826415235423</v>
       </c>
       <c r="E33">
-        <v>33.04674691460701</v>
+        <v>19.26446021688719</v>
       </c>
       <c r="F33">
-        <v>23.83553790855341</v>
+        <v>13.89482519940478</v>
       </c>
       <c r="G33">
-        <v>77.31433381672427</v>
+        <v>45.07006126370285</v>
       </c>
       <c r="I33">
-        <v>367.7112917529954</v>
+        <v>214.3557297660874</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>144.5038680670277</v>
+        <v>84.23791378791068</v>
       </c>
       <c r="C34">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D34">
-        <v>29.78163675059328</v>
+        <v>17.36107816778772</v>
       </c>
       <c r="E34">
-        <v>10.3271084108147</v>
+        <v>6.020143817777248</v>
       </c>
       <c r="F34">
-        <v>20.72655470308992</v>
+        <v>12.08245669513459</v>
       </c>
       <c r="G34">
-        <v>66.57623189773476</v>
+        <v>38.81033053263301</v>
       </c>
       <c r="H34">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I34">
-        <v>273.3183127750419</v>
+        <v>159.3297451215748</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>114.4143736880322</v>
+        <v>66.69737132821726</v>
       </c>
       <c r="C35">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D35">
-        <v>32.75980042565261</v>
+        <v>19.09718598456648</v>
       </c>
       <c r="E35">
-        <v>14.45795177514057</v>
+        <v>8.428201344888144</v>
       </c>
       <c r="F35">
-        <v>26.94452111401689</v>
+        <v>15.70719370367496</v>
       </c>
       <c r="G35">
-        <v>70.87147266533057</v>
+        <v>41.31422282506093</v>
       </c>
       <c r="H35">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I35">
-        <v>260.8668035945061</v>
+        <v>152.0711909326114</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>59.06456304025041</v>
+        <v>34.4314351986576</v>
       </c>
       <c r="C36">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D36">
-        <v>17.86898205035597</v>
+        <v>10.41664690067263</v>
       </c>
       <c r="E36">
-        <v>7.228975887570285</v>
+        <v>4.214100672444072</v>
       </c>
       <c r="F36">
-        <v>12.43593282185395</v>
+        <v>7.249474017080751</v>
       </c>
       <c r="G36">
-        <v>34.36192614076636</v>
+        <v>20.03113833942348</v>
       </c>
       <c r="I36">
-        <v>131.015578372728</v>
+        <v>76.37497281883054</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>36.0330982069452</v>
+        <v>21.00534097025023</v>
       </c>
       <c r="C37">
-        <v>0.07096941248268548</v>
+        <v>0.04137131642401511</v>
       </c>
       <c r="D37">
-        <v>5.956327350118658</v>
+        <v>3.472215633557542</v>
       </c>
       <c r="E37">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F37">
-        <v>13.47226055700845</v>
+        <v>7.853596851837482</v>
       </c>
       <c r="G37">
-        <v>21.47620383797896</v>
+        <v>12.51946146213968</v>
       </c>
       <c r="H37">
-        <v>1.347714513850538</v>
+        <v>0.7856444297795385</v>
       </c>
       <c r="I37">
-        <v>83.52012808379183</v>
+        <v>48.68770257287711</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>17.45933624460232</v>
+        <v>10.17784562476042</v>
       </c>
       <c r="C38">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D38">
-        <v>5.956327350118658</v>
+        <v>3.472215633557542</v>
       </c>
       <c r="E38">
-        <v>5.163554205407348</v>
+        <v>3.010071908888624</v>
       </c>
       <c r="F38">
-        <v>9.326949616390465</v>
+        <v>5.437105512810563</v>
       </c>
       <c r="G38">
-        <v>23.62382422177687</v>
+        <v>13.77140760835365</v>
       </c>
       <c r="I38">
-        <v>61.60884654105421</v>
+        <v>35.91461441773081</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>13.37310861288688</v>
+        <v>7.795796648752665</v>
       </c>
       <c r="C39">
-        <v>0.02365647082756183</v>
+        <v>0.01379043880800503</v>
       </c>
       <c r="F39">
-        <v>5.181638675772479</v>
+        <v>3.020614173783646</v>
       </c>
       <c r="G39">
-        <v>23.62382422177687</v>
+        <v>13.77140760835365</v>
       </c>
       <c r="I39">
-        <v>42.20222798126379</v>
+        <v>24.60160886969796</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>13.00163337364002</v>
+        <v>7.579246741842871</v>
       </c>
       <c r="C40">
-        <v>0.03154196110341578</v>
+        <v>0.01838725174400671</v>
       </c>
       <c r="E40">
-        <v>2.065421682162938</v>
+        <v>1.204028763555449</v>
       </c>
       <c r="F40">
-        <v>9.326949616390465</v>
+        <v>5.437105512810563</v>
       </c>
       <c r="G40">
-        <v>45.10002805975584</v>
+        <v>26.29086907049333</v>
       </c>
       <c r="I40">
-        <v>69.52557469305268</v>
+        <v>40.52963734044621</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>28.60359342200806</v>
+        <v>16.67434283205431</v>
       </c>
       <c r="C41">
-        <v>0.01577098055170789</v>
+        <v>0.009193625872003355</v>
       </c>
       <c r="D41">
-        <v>11.91265470023732</v>
+        <v>6.944431267115084</v>
       </c>
       <c r="E41">
-        <v>4.130843364325877</v>
+        <v>2.408057527110898</v>
       </c>
       <c r="F41">
-        <v>18.65389923278093</v>
+        <v>10.87421102562113</v>
       </c>
       <c r="G41">
-        <v>85.90481535191586</v>
+        <v>50.07784584855872</v>
       </c>
       <c r="I41">
-        <v>149.2215770518197</v>
+        <v>86.98808212633213</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>63.52226591121271</v>
+        <v>37.03003408157515</v>
       </c>
       <c r="C42">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D42">
-        <v>26.80347307553396</v>
+        <v>15.62497035100894</v>
       </c>
       <c r="E42">
-        <v>14.45795177514057</v>
+        <v>8.428201344888144</v>
       </c>
       <c r="F42">
-        <v>25.9081933788624</v>
+        <v>15.10307086891823</v>
       </c>
       <c r="G42">
-        <v>109.5286395736927</v>
+        <v>63.84925345691236</v>
       </c>
       <c r="H42">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I42">
-        <v>242.9632656837985</v>
+        <v>141.6343998404779</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>211.3694111314622</v>
+        <v>123.2168970316741</v>
       </c>
       <c r="C43">
-        <v>0.03942745137926971</v>
+        <v>0.02298406468000839</v>
       </c>
       <c r="D43">
-        <v>35.73796410071193</v>
+        <v>20.83329380134526</v>
       </c>
       <c r="E43">
-        <v>46.47198784866612</v>
+        <v>27.09064717999761</v>
       </c>
       <c r="F43">
-        <v>67.36130278504224</v>
+        <v>39.26798425918741</v>
       </c>
       <c r="G43">
-        <v>167.5143899362359</v>
+        <v>97.6517994046895</v>
       </c>
       <c r="I43">
-        <v>528.4944832534977</v>
+        <v>308.0836057415738</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>382.2480211850167</v>
+        <v>222.8298542101802</v>
       </c>
       <c r="C44">
-        <v>0.04731294165512365</v>
+        <v>0.02758087761601007</v>
       </c>
       <c r="D44">
-        <v>89.34491025177982</v>
+        <v>52.08323450336313</v>
       </c>
       <c r="E44">
-        <v>37.1775902789329</v>
+        <v>21.67251774399809</v>
       </c>
       <c r="F44">
-        <v>82.90621881235967</v>
+        <v>48.32982678053834</v>
       </c>
       <c r="G44">
-        <v>152.4810472496506</v>
+        <v>88.88817638119168</v>
       </c>
       <c r="H44">
-        <v>8.08628708310323</v>
+        <v>4.713866578677232</v>
       </c>
       <c r="I44">
-        <v>752.291387802498</v>
+        <v>438.5450570755647</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>418.2811193919615</v>
+        <v>243.8351951804305</v>
       </c>
       <c r="C45">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D45">
-        <v>83.38858290166122</v>
+        <v>48.61101886980559</v>
       </c>
       <c r="E45">
-        <v>24.78506018595526</v>
+        <v>14.44834516266539</v>
       </c>
       <c r="F45">
-        <v>66.3249750498877</v>
+        <v>38.66386142443066</v>
       </c>
       <c r="G45">
-        <v>111.6762599574906</v>
+        <v>65.10119960312633</v>
       </c>
       <c r="H45">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I45">
-        <v>709.925710445117</v>
+        <v>413.8481660889366</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>315.0110028813354</v>
+        <v>183.6343210595071</v>
       </c>
       <c r="C46">
-        <v>0.1182823541378091</v>
+        <v>0.06895219404002517</v>
       </c>
       <c r="D46">
-        <v>86.36674657672053</v>
+        <v>50.34712668658435</v>
       </c>
       <c r="E46">
-        <v>22.71963850379231</v>
+        <v>13.24431639910994</v>
       </c>
       <c r="F46">
-        <v>79.79723560689619</v>
+        <v>46.51745827626814</v>
       </c>
       <c r="G46">
-        <v>154.6286676334485</v>
+        <v>90.14012252740569</v>
       </c>
       <c r="H46">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I46">
-        <v>664.032431611733</v>
+        <v>387.0948748620334</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>238.4871035964828</v>
+        <v>139.0250402360891</v>
       </c>
       <c r="C47">
-        <v>0.07885490275853942</v>
+        <v>0.04596812936001678</v>
       </c>
       <c r="D47">
-        <v>83.38858290166122</v>
+        <v>48.61101886980559</v>
       </c>
       <c r="E47">
-        <v>16.52337345730351</v>
+        <v>9.632230108443594</v>
       </c>
       <c r="F47">
-        <v>98.45113483967711</v>
+        <v>57.39166930188927</v>
       </c>
       <c r="G47">
-        <v>152.4810472496506</v>
+        <v>88.88817638119168</v>
       </c>
       <c r="H47">
-        <v>6.73857256925269</v>
+        <v>3.928222148897693</v>
       </c>
       <c r="I47">
-        <v>596.1486695167865</v>
+        <v>347.522325175677</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>231.8005492900394</v>
+        <v>135.1271419117129</v>
       </c>
       <c r="C48">
-        <v>0.05519843193097759</v>
+        <v>0.03217769055201175</v>
       </c>
       <c r="D48">
-        <v>65.51960085130521</v>
+        <v>38.19437196913296</v>
       </c>
       <c r="E48">
-        <v>17.55608429838497</v>
+        <v>10.23424449022132</v>
       </c>
       <c r="F48">
-        <v>94.30582389905916</v>
+        <v>54.97517796286237</v>
       </c>
       <c r="G48">
-        <v>109.5286395736927</v>
+        <v>63.84925345691236</v>
       </c>
       <c r="H48">
-        <v>5.390858055402153</v>
+        <v>3.142577719118154</v>
       </c>
       <c r="I48">
-        <v>524.1567543998146</v>
+        <v>305.5549452005121</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>239.2300540749764</v>
+        <v>139.4581400499087</v>
       </c>
       <c r="C49">
-        <v>0.1261678444136631</v>
+        <v>0.07354900697602684</v>
       </c>
       <c r="D49">
-        <v>65.51960085130521</v>
+        <v>38.19437196913296</v>
       </c>
       <c r="E49">
-        <v>13.4252409340591</v>
+        <v>7.82618696311042</v>
       </c>
       <c r="F49">
-        <v>77.72458013658719</v>
+        <v>45.30921260675471</v>
       </c>
       <c r="G49">
-        <v>88.05243573571377</v>
+        <v>51.32979199477268</v>
       </c>
       <c r="H49">
-        <v>2.695429027701076</v>
+        <v>1.571288859559077</v>
       </c>
       <c r="I49">
-        <v>486.7735086047564</v>
+        <v>283.7625414502147</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_NOx.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>160.8965808339786</v>
+        <v>147.408667096908</v>
       </c>
       <c r="C2">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D2">
-        <v>31.24994070201788</v>
+        <v>53.54525045560126</v>
       </c>
       <c r="E2">
-        <v>7.224172581332695</v>
+        <v>12.39253009297763</v>
       </c>
       <c r="F2">
-        <v>63.43289764945659</v>
+        <v>108.5977832869163</v>
       </c>
       <c r="G2">
-        <v>71.36093033419611</v>
+        <v>122.2783082787641</v>
       </c>
       <c r="H2">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I2">
-        <v>335.7863759028371</v>
+        <v>447.0047086319028</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>159.8138312994296</v>
+        <v>146.4166841420164</v>
       </c>
       <c r="C3">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D3">
-        <v>65.97209703759327</v>
+        <v>113.039973184047</v>
       </c>
       <c r="E3">
-        <v>7.224172581332695</v>
+        <v>12.39253009297763</v>
       </c>
       <c r="F3">
-        <v>51.35044095432196</v>
+        <v>87.91249123226554</v>
       </c>
       <c r="G3">
-        <v>61.34536116448443</v>
+        <v>105.1164404501657</v>
       </c>
       <c r="H3">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I3">
-        <v>348.1088044558605</v>
+        <v>469.0001175457824</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>169.3420272034606</v>
+        <v>155.1461341450634</v>
       </c>
       <c r="C4">
-        <v>0.09193625872003355</v>
+        <v>0.1577098055170788</v>
       </c>
       <c r="D4">
-        <v>52.08323450336313</v>
+        <v>89.24208409266873</v>
       </c>
       <c r="E4">
-        <v>9.030215726665867</v>
+        <v>15.49066261622204</v>
       </c>
       <c r="F4">
-        <v>46.51745827626814</v>
+        <v>79.63837441040529</v>
       </c>
       <c r="G4">
-        <v>56.33757657962855</v>
+        <v>96.53550653586639</v>
       </c>
       <c r="H4">
-        <v>5.49951100845677</v>
+        <v>9.434001596953768</v>
       </c>
       <c r="I4">
-        <v>338.9019595565631</v>
+        <v>445.6444732026966</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>222.3967543963607</v>
+        <v>203.7532989347571</v>
       </c>
       <c r="C5">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D5">
-        <v>85.06928302215982</v>
+        <v>145.7620706846924</v>
       </c>
       <c r="E5">
-        <v>12.64230201733222</v>
+        <v>21.68692766271085</v>
       </c>
       <c r="F5">
-        <v>48.32982678053834</v>
+        <v>82.74116821860289</v>
       </c>
       <c r="G5">
-        <v>32.55059980156317</v>
+        <v>55.77607044294504</v>
       </c>
       <c r="H5">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I5">
-        <v>403.3778769978449</v>
+        <v>513.817877917191</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>287.7948262831191</v>
+        <v>263.6690694102165</v>
       </c>
       <c r="C6">
-        <v>0.02298406468000839</v>
+        <v>0.03942745137926971</v>
       </c>
       <c r="D6">
-        <v>72.91652830470845</v>
+        <v>124.9389177297363</v>
       </c>
       <c r="E6">
-        <v>15.05035954444311</v>
+        <v>25.81777102703674</v>
       </c>
       <c r="F6">
-        <v>40.47622992870085</v>
+        <v>69.29572838307995</v>
       </c>
       <c r="G6">
-        <v>35.0544920939911</v>
+        <v>60.06653740009465</v>
       </c>
       <c r="H6">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I6">
-        <v>453.6723535089812</v>
+        <v>547.8705949430951</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>244.0517450873403</v>
+        <v>223.5929580325914</v>
       </c>
       <c r="C7">
-        <v>0.02298406468000839</v>
+        <v>0.03942745137926971</v>
       </c>
       <c r="D7">
-        <v>43.40269541946929</v>
+        <v>74.36840341055728</v>
       </c>
       <c r="E7">
-        <v>18.66244583510947</v>
+        <v>32.01403607352555</v>
       </c>
       <c r="F7">
-        <v>28.39377323356628</v>
+        <v>48.61043632842919</v>
       </c>
       <c r="G7">
-        <v>32.55059980156317</v>
+        <v>55.77607044294504</v>
       </c>
       <c r="H7">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I7">
-        <v>371.0124655906262</v>
+        <v>441.1399043086805</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>172.8068257140175</v>
+        <v>158.3204796007169</v>
       </c>
       <c r="C8">
-        <v>0.05516175523202013</v>
+        <v>0.09462588331024731</v>
       </c>
       <c r="D8">
-        <v>29.5138328852391</v>
+        <v>50.57051431917896</v>
       </c>
       <c r="E8">
-        <v>11.43827325377677</v>
+        <v>19.62150598054791</v>
       </c>
       <c r="F8">
-        <v>16.31131653843169</v>
+        <v>27.92514427377847</v>
       </c>
       <c r="G8">
-        <v>53.83368428720061</v>
+        <v>92.24503957871678</v>
       </c>
       <c r="H8">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I8">
-        <v>285.5303832934568</v>
+        <v>351.4727386639504</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>107.408753827259</v>
+        <v>98.40470912525763</v>
       </c>
       <c r="C9">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D9">
-        <v>31.24994070201788</v>
+        <v>53.54525045560126</v>
       </c>
       <c r="E9">
-        <v>17.45841707155402</v>
+        <v>29.9486143913626</v>
       </c>
       <c r="F9">
-        <v>16.91543937318843</v>
+        <v>28.95940887651101</v>
       </c>
       <c r="G9">
-        <v>57.58952272584255</v>
+        <v>98.68074001444118</v>
       </c>
       <c r="H9">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I9">
-        <v>231.4352990072574</v>
+        <v>310.9337503186794</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>87.26961248464787</v>
+        <v>79.95382616427183</v>
       </c>
       <c r="C10">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D10">
-        <v>13.88886253423017</v>
+        <v>23.79788909137834</v>
       </c>
       <c r="E10">
-        <v>4.816115054221797</v>
+        <v>8.261686728651753</v>
       </c>
       <c r="F10">
-        <v>10.2700881908644</v>
+        <v>17.58249824645311</v>
       </c>
       <c r="G10">
-        <v>35.0544920939911</v>
+        <v>60.06653740009465</v>
       </c>
       <c r="I10">
-        <v>151.3497353002514</v>
+        <v>189.7491780238841</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>57.38572533109598</v>
+        <v>52.57509660926065</v>
       </c>
       <c r="C11">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D11">
-        <v>5.208323450336314</v>
+        <v>8.924208409266873</v>
       </c>
       <c r="E11">
-        <v>7.82618696311042</v>
+        <v>13.4252409340591</v>
       </c>
       <c r="F11">
-        <v>7.249474017080751</v>
+        <v>12.41117523279043</v>
       </c>
       <c r="G11">
-        <v>37.55838438641905</v>
+        <v>64.35700435724431</v>
       </c>
       <c r="I11">
-        <v>115.2418845868505</v>
+        <v>151.7163820134489</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>32.48248603646943</v>
+        <v>29.75948864675131</v>
       </c>
       <c r="C12">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D12">
-        <v>3.472215633557542</v>
+        <v>5.949472272844584</v>
       </c>
       <c r="E12">
-        <v>4.816115054221797</v>
+        <v>8.261686728651753</v>
       </c>
       <c r="F12">
-        <v>3.624737008540376</v>
+        <v>6.205587616395215</v>
       </c>
       <c r="G12">
-        <v>11.26751531592571</v>
+        <v>19.30710130717328</v>
       </c>
       <c r="H12">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I12">
-        <v>56.49008479491841</v>
+        <v>70.90202049814935</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>19.70604152879146</v>
+        <v>18.05408977902914</v>
       </c>
       <c r="C13">
-        <v>0.01838725174400671</v>
+        <v>0.03154196110341578</v>
       </c>
       <c r="D13">
-        <v>3.472215633557542</v>
+        <v>5.949472272844584</v>
       </c>
       <c r="E13">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F13">
-        <v>3.624737008540376</v>
+        <v>6.205587616395215</v>
       </c>
       <c r="G13">
-        <v>10.01556916971174</v>
+        <v>17.16186782859847</v>
       </c>
       <c r="I13">
-        <v>39.84702250123375</v>
+        <v>52.56611366337818</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>11.47714506621919</v>
+        <v>10.51501932185212</v>
       </c>
       <c r="C14">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D14">
-        <v>5.208323450336314</v>
+        <v>8.924208409266873</v>
       </c>
       <c r="E14">
-        <v>2.408057527110898</v>
+        <v>4.130843364325877</v>
       </c>
       <c r="F14">
-        <v>5.437105512810563</v>
+        <v>9.308381424592827</v>
       </c>
       <c r="G14">
-        <v>18.77919219320952</v>
+        <v>32.17850217862215</v>
       </c>
       <c r="I14">
-        <v>43.3374046273025</v>
+        <v>65.10426764031497</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>5.413747672744902</v>
+        <v>4.959914774458544</v>
       </c>
       <c r="C15">
-        <v>0.02298406468000839</v>
+        <v>0.03942745137926971</v>
       </c>
       <c r="D15">
-        <v>5.208323450336314</v>
+        <v>8.924208409266873</v>
       </c>
       <c r="E15">
-        <v>0.6020143817777246</v>
+        <v>1.032710841081469</v>
       </c>
       <c r="F15">
-        <v>5.437105512810563</v>
+        <v>9.308381424592827</v>
       </c>
       <c r="G15">
-        <v>8.763623023497775</v>
+        <v>15.01663435002366</v>
       </c>
       <c r="I15">
-        <v>25.44779810584729</v>
+        <v>39.28127725080265</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>3.031698696737148</v>
+        <v>2.777552273696787</v>
       </c>
       <c r="C16">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D16">
-        <v>1.736107816778771</v>
+        <v>2.974736136422292</v>
       </c>
       <c r="F16">
-        <v>1.812368504270188</v>
+        <v>3.102793808197608</v>
       </c>
       <c r="G16">
-        <v>15.02335375456761</v>
+        <v>25.74280174289771</v>
       </c>
       <c r="I16">
-        <v>21.61731921116172</v>
+        <v>34.62154043204195</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>14.72539366986615</v>
+        <v>13.49096818652725</v>
       </c>
       <c r="D17">
-        <v>3.472215633557542</v>
+        <v>5.949472272844584</v>
       </c>
       <c r="E17">
-        <v>2.408057527110898</v>
+        <v>4.130843364325877</v>
       </c>
       <c r="F17">
-        <v>4.832982678053832</v>
+        <v>8.274116821860288</v>
       </c>
       <c r="G17">
-        <v>31.29865365534917</v>
+        <v>53.63083696437023</v>
       </c>
       <c r="I17">
-        <v>56.73730316393759</v>
+        <v>85.47623760992823</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>35.51418473320658</v>
+        <v>32.53704092044808</v>
       </c>
       <c r="C18">
-        <v>0.01838725174400671</v>
+        <v>0.03154196110341578</v>
       </c>
       <c r="D18">
-        <v>6.944431267115084</v>
+        <v>11.89894454568917</v>
       </c>
       <c r="E18">
-        <v>7.224172581332695</v>
+        <v>12.39253009297763</v>
       </c>
       <c r="F18">
-        <v>15.70719370367496</v>
+        <v>26.89087967104593</v>
       </c>
       <c r="G18">
-        <v>70.1089841879822</v>
+        <v>120.1330748001893</v>
       </c>
       <c r="I18">
-        <v>135.5173537250555</v>
+        <v>203.8840119914535</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>112.1728517792744</v>
+        <v>102.7694341267811</v>
       </c>
       <c r="C19">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="D19">
-        <v>17.36107816778772</v>
+        <v>29.74736136422292</v>
       </c>
       <c r="E19">
-        <v>25.28460403466443</v>
+        <v>43.37385532542171</v>
       </c>
       <c r="F19">
-        <v>31.41438740734993</v>
+        <v>53.78175934209186</v>
       </c>
       <c r="G19">
-        <v>100.1556916971174</v>
+        <v>171.6186782859846</v>
       </c>
       <c r="H19">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I19">
-        <v>288.7593368143405</v>
+        <v>405.3578884568814</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>226.5112026276468</v>
+        <v>207.5228341633457</v>
       </c>
       <c r="C20">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D20">
-        <v>57.29155795369945</v>
+        <v>98.16629250193559</v>
       </c>
       <c r="E20">
-        <v>21.07050336222036</v>
+        <v>36.14487943785142</v>
       </c>
       <c r="F20">
-        <v>51.95456378907873</v>
+        <v>88.94675583499807</v>
       </c>
       <c r="G20">
-        <v>72.61287648041012</v>
+        <v>124.4235417573389</v>
       </c>
       <c r="H20">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I20">
-        <v>434.1821516693487</v>
+        <v>563.3379037202282</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>248.8158430393557</v>
+        <v>227.957683034115</v>
       </c>
       <c r="C21">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D21">
-        <v>34.72215633557544</v>
+        <v>59.49472272844584</v>
       </c>
       <c r="E21">
-        <v>15.65237392622084</v>
+        <v>26.85048186811819</v>
       </c>
       <c r="F21">
-        <v>45.30921260675471</v>
+        <v>77.56984520494022</v>
       </c>
       <c r="G21">
-        <v>67.60509189555424</v>
+        <v>115.8426078430397</v>
       </c>
       <c r="H21">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I21">
-        <v>416.8691093244342</v>
+        <v>515.8883681547966</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>194.461816404997</v>
+        <v>178.1601386985512</v>
       </c>
       <c r="C22">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D22">
-        <v>48.61101886980559</v>
+        <v>83.2926118198242</v>
       </c>
       <c r="E22">
-        <v>15.65237392622084</v>
+        <v>26.85048186811819</v>
       </c>
       <c r="F22">
-        <v>53.16280945859216</v>
+        <v>91.01528504046317</v>
       </c>
       <c r="G22">
-        <v>85.13233794254984</v>
+        <v>145.875876543087</v>
       </c>
       <c r="H22">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I22">
-        <v>400.9807564416151</v>
+        <v>531.9881649712274</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>137.076091073901</v>
+        <v>125.5850420892905</v>
       </c>
       <c r="C23">
-        <v>0.0781458199120285</v>
+        <v>0.1340533346895171</v>
       </c>
       <c r="D23">
-        <v>39.93047978591171</v>
+        <v>68.41893113771273</v>
       </c>
       <c r="E23">
-        <v>6.020143817777248</v>
+        <v>10.3271084108147</v>
       </c>
       <c r="F23">
-        <v>65.24526615372677</v>
+        <v>111.7005770951139</v>
       </c>
       <c r="G23">
-        <v>83.88039179633584</v>
+        <v>143.7306430645122</v>
       </c>
       <c r="H23">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I23">
-        <v>336.9443850262419</v>
+        <v>467.9826422152368</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>139.6746899568186</v>
+        <v>127.9658011810305</v>
       </c>
       <c r="C24">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D24">
-        <v>46.8749110530268</v>
+        <v>80.31787568340194</v>
       </c>
       <c r="E24">
-        <v>9.030215726665867</v>
+        <v>15.49066261622204</v>
       </c>
       <c r="F24">
-        <v>60.41228347567292</v>
+        <v>103.4264602732537</v>
       </c>
       <c r="G24">
-        <v>75.1167687728381</v>
+        <v>128.7140087144886</v>
       </c>
       <c r="H24">
-        <v>2.356933289338616</v>
+        <v>4.043143541551615</v>
       </c>
       <c r="I24">
-        <v>333.4933831519768</v>
+        <v>460.0052649516035</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>131.4457934942463</v>
+        <v>120.4267307238536</v>
       </c>
       <c r="C25">
-        <v>0.05975856816802181</v>
+        <v>0.1025113735861012</v>
       </c>
       <c r="D25">
-        <v>31.24994070201788</v>
+        <v>53.54525045560126</v>
       </c>
       <c r="E25">
-        <v>7.82618696311042</v>
+        <v>13.4252409340591</v>
       </c>
       <c r="F25">
-        <v>38.05973858967395</v>
+        <v>65.1586699721498</v>
       </c>
       <c r="G25">
-        <v>55.08563043341459</v>
+        <v>94.39027305729162</v>
       </c>
       <c r="H25">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I25">
-        <v>265.2983376101902</v>
+        <v>349.7441055442426</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>152.0180346506769</v>
+        <v>139.274406866796</v>
       </c>
       <c r="C26">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D26">
-        <v>48.61101886980559</v>
+        <v>83.2926118198242</v>
       </c>
       <c r="E26">
-        <v>6.622158199554971</v>
+        <v>11.35981925189616</v>
       </c>
       <c r="F26">
-        <v>59.20403780615949</v>
+        <v>101.3579310677885</v>
       </c>
       <c r="G26">
-        <v>61.34536116448443</v>
+        <v>105.1164404501657</v>
       </c>
       <c r="H26">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I26">
-        <v>331.761010530131</v>
+        <v>447.1949804576542</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>147.2539366986614</v>
+        <v>134.9096818652726</v>
       </c>
       <c r="C27">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D27">
-        <v>38.19437196913296</v>
+        <v>65.4441950012904</v>
       </c>
       <c r="E27">
-        <v>6.020143817777248</v>
+        <v>10.3271084108147</v>
       </c>
       <c r="F27">
-        <v>36.24737008540375</v>
+        <v>62.05587616395216</v>
       </c>
       <c r="G27">
-        <v>66.35314574934029</v>
+        <v>113.6973743644648</v>
       </c>
       <c r="H27">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I27">
-        <v>295.6770316833628</v>
+        <v>389.1927487557026</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>162.4124301823472</v>
+        <v>148.7974432337566</v>
       </c>
       <c r="C28">
-        <v>0.05056494229601845</v>
+        <v>0.08674039303439338</v>
       </c>
       <c r="D28">
-        <v>64.23598922081453</v>
+        <v>110.0652370476248</v>
       </c>
       <c r="E28">
-        <v>10.23424449022132</v>
+        <v>17.55608429838497</v>
       </c>
       <c r="F28">
-        <v>53.76693229334891</v>
+        <v>92.04954964319572</v>
       </c>
       <c r="G28">
-        <v>58.8414688720565</v>
+        <v>100.8259734930161</v>
       </c>
       <c r="H28">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I28">
-        <v>352.6842077202027</v>
+        <v>474.7718861644146</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>233.0076998349407</v>
+        <v>213.474731892696</v>
       </c>
       <c r="C29">
-        <v>0.05516175523202013</v>
+        <v>0.09462588331024731</v>
       </c>
       <c r="D29">
-        <v>71.18042048792958</v>
+        <v>121.9641815933139</v>
       </c>
       <c r="E29">
-        <v>12.0402876355545</v>
+        <v>20.65421682162939</v>
       </c>
       <c r="F29">
-        <v>57.39166930188927</v>
+        <v>98.25513725959091</v>
       </c>
       <c r="G29">
-        <v>40.06227667884696</v>
+        <v>68.64747131439388</v>
       </c>
       <c r="H29">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I29">
-        <v>417.6657378432907</v>
+        <v>529.8289373341871</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>264.1908864299513</v>
+        <v>242.0438409935773</v>
       </c>
       <c r="C30">
-        <v>0.0643553811040235</v>
+        <v>0.1103968638619552</v>
       </c>
       <c r="D30">
-        <v>69.44431267115088</v>
+        <v>118.9894454568917</v>
       </c>
       <c r="E30">
-        <v>13.84633078088767</v>
+        <v>23.75234934487379</v>
       </c>
       <c r="F30">
-        <v>37.45561575491722</v>
+        <v>64.12440536941722</v>
       </c>
       <c r="G30">
-        <v>28.79476136292127</v>
+        <v>49.34037000722059</v>
       </c>
       <c r="H30">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I30">
-        <v>417.7244845298301</v>
+        <v>505.0993806050952</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>247.7330935048068</v>
+        <v>226.9657000792233</v>
       </c>
       <c r="C31">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D31">
-        <v>74.65263612148715</v>
+        <v>127.9136538661586</v>
       </c>
       <c r="E31">
-        <v>19.26446021688719</v>
+        <v>33.04674691460701</v>
       </c>
       <c r="F31">
-        <v>28.997896068323</v>
+        <v>49.64470093116172</v>
       </c>
       <c r="G31">
-        <v>46.32200740991681</v>
+        <v>79.37363870726796</v>
       </c>
       <c r="H31">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I31">
-        <v>418.5873503103401</v>
+        <v>519.7187244288781</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>157.6483322303316</v>
+        <v>144.4327182322331</v>
       </c>
       <c r="C32">
-        <v>0.03677450348801342</v>
+        <v>0.06308392220683155</v>
       </c>
       <c r="D32">
-        <v>71.18042048792958</v>
+        <v>121.9641815933139</v>
       </c>
       <c r="E32">
-        <v>16.25438830799856</v>
+        <v>27.88319270919967</v>
       </c>
       <c r="F32">
-        <v>25.37315905978263</v>
+        <v>43.43911331476652</v>
       </c>
       <c r="G32">
-        <v>52.58173814098665</v>
+        <v>90.099806100142</v>
       </c>
       <c r="I32">
-        <v>323.0748127305171</v>
+        <v>427.8820958718621</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>99.61295717850629</v>
+        <v>91.26243185003723</v>
       </c>
       <c r="C33">
-        <v>0.05516175523202013</v>
+        <v>0.09462588331024731</v>
       </c>
       <c r="D33">
-        <v>36.45826415235423</v>
+        <v>62.46945886486814</v>
       </c>
       <c r="E33">
-        <v>19.26446021688719</v>
+        <v>33.04674691460701</v>
       </c>
       <c r="F33">
-        <v>13.89482519940478</v>
+        <v>23.78808586284833</v>
       </c>
       <c r="G33">
-        <v>45.07006126370285</v>
+        <v>77.22840522869313</v>
       </c>
       <c r="I33">
-        <v>214.3557297660874</v>
+        <v>287.8897546043641</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>84.23791378791068</v>
+        <v>77.17627389057499</v>
       </c>
       <c r="C34">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D34">
-        <v>17.36107816778772</v>
+        <v>29.74736136422292</v>
       </c>
       <c r="E34">
-        <v>6.020143817777248</v>
+        <v>10.3271084108147</v>
       </c>
       <c r="F34">
-        <v>12.08245669513459</v>
+        <v>20.68529205465072</v>
       </c>
       <c r="G34">
-        <v>38.81033053263301</v>
+        <v>66.5022378358191</v>
       </c>
       <c r="H34">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I34">
-        <v>159.3297451215748</v>
+        <v>205.841186501864</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>66.69737132821726</v>
+        <v>61.10615002132936</v>
       </c>
       <c r="C35">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D35">
-        <v>19.09718598456648</v>
+        <v>32.7220975006452</v>
       </c>
       <c r="E35">
-        <v>8.428201344888144</v>
+        <v>14.45795177514057</v>
       </c>
       <c r="F35">
-        <v>15.70719370367496</v>
+        <v>26.89087967104593</v>
       </c>
       <c r="G35">
-        <v>41.31422282506093</v>
+        <v>70.79270479296871</v>
       </c>
       <c r="H35">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I35">
-        <v>152.0711909326114</v>
+        <v>207.388467687463</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>34.4314351986576</v>
+        <v>31.54505796555637</v>
       </c>
       <c r="C36">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D36">
-        <v>10.41664690067263</v>
+        <v>17.84841681853375</v>
       </c>
       <c r="E36">
-        <v>4.214100672444072</v>
+        <v>7.228975887570285</v>
       </c>
       <c r="F36">
-        <v>7.249474017080751</v>
+        <v>12.41117523279043</v>
       </c>
       <c r="G36">
-        <v>20.03113833942348</v>
+        <v>34.32373565719694</v>
       </c>
       <c r="I36">
-        <v>76.37497281883054</v>
+        <v>103.4125599935788</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>21.00534097025023</v>
+        <v>19.24446932489917</v>
       </c>
       <c r="C37">
-        <v>0.04137131642401511</v>
+        <v>0.07096941248268548</v>
       </c>
       <c r="D37">
-        <v>3.472215633557542</v>
+        <v>5.949472272844584</v>
       </c>
       <c r="E37">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F37">
-        <v>7.853596851837482</v>
+        <v>13.44543983552296</v>
       </c>
       <c r="G37">
-        <v>12.51946146213968</v>
+        <v>21.45233478574808</v>
       </c>
       <c r="H37">
-        <v>0.7856444297795385</v>
+        <v>1.347714513850538</v>
       </c>
       <c r="I37">
-        <v>48.68770257287711</v>
+        <v>66.67395435075537</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>10.17784562476042</v>
+        <v>9.324639775982071</v>
       </c>
       <c r="C38">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D38">
-        <v>3.472215633557542</v>
+        <v>5.949472272844584</v>
       </c>
       <c r="E38">
-        <v>3.010071908888624</v>
+        <v>5.163554205407348</v>
       </c>
       <c r="F38">
-        <v>5.437105512810563</v>
+        <v>9.308381424592827</v>
       </c>
       <c r="G38">
-        <v>13.77140760835365</v>
+        <v>23.59756826432291</v>
       </c>
       <c r="I38">
-        <v>35.91461441773081</v>
+        <v>53.42247084590828</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>7.795796648752665</v>
+        <v>7.142277275220309</v>
       </c>
       <c r="C39">
-        <v>0.01379043880800503</v>
+        <v>0.02365647082756183</v>
       </c>
       <c r="F39">
-        <v>3.020614173783646</v>
+        <v>5.171323013662681</v>
       </c>
       <c r="G39">
-        <v>13.77140760835365</v>
+        <v>23.59756826432291</v>
       </c>
       <c r="I39">
-        <v>24.60160886969796</v>
+        <v>35.93482502403346</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>7.579246741842871</v>
+        <v>6.943880684241966</v>
       </c>
       <c r="C40">
-        <v>0.01838725174400671</v>
+        <v>0.03154196110341578</v>
       </c>
       <c r="E40">
-        <v>1.204028763555449</v>
+        <v>2.065421682162938</v>
       </c>
       <c r="F40">
-        <v>5.437105512810563</v>
+        <v>9.308381424592827</v>
       </c>
       <c r="G40">
-        <v>26.29086907049333</v>
+        <v>45.049903050071</v>
       </c>
       <c r="I40">
-        <v>40.52963734044621</v>
+        <v>63.39912880217215</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>16.67434283205431</v>
+        <v>15.27653750533234</v>
       </c>
       <c r="C41">
-        <v>0.009193625872003355</v>
+        <v>0.01577098055170789</v>
       </c>
       <c r="D41">
-        <v>6.944431267115084</v>
+        <v>11.89894454568917</v>
       </c>
       <c r="E41">
-        <v>2.408057527110898</v>
+        <v>4.130843364325877</v>
       </c>
       <c r="F41">
-        <v>10.87421102562113</v>
+        <v>18.61676284918565</v>
       </c>
       <c r="G41">
-        <v>50.07784584855872</v>
+        <v>85.80933914299231</v>
       </c>
       <c r="I41">
-        <v>86.98808212633213</v>
+        <v>135.7481983880771</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>37.03003408157515</v>
+        <v>33.92581705729647</v>
       </c>
       <c r="C42">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D42">
-        <v>15.62497035100894</v>
+        <v>26.77262522780063</v>
       </c>
       <c r="E42">
-        <v>8.428201344888144</v>
+        <v>14.45795177514057</v>
       </c>
       <c r="F42">
-        <v>15.10307086891823</v>
+        <v>25.85661506831341</v>
       </c>
       <c r="G42">
-        <v>63.84925345691236</v>
+        <v>109.4069074073153</v>
       </c>
       <c r="H42">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I42">
-        <v>141.6343998404779</v>
+        <v>213.1626585052225</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>123.2168970316741</v>
+        <v>112.8876602666765</v>
       </c>
       <c r="C43">
-        <v>0.02298406468000839</v>
+        <v>0.03942745137926971</v>
       </c>
       <c r="D43">
-        <v>20.83329380134526</v>
+        <v>35.69683363706749</v>
       </c>
       <c r="E43">
-        <v>27.09064717999761</v>
+        <v>46.47198784866612</v>
       </c>
       <c r="F43">
-        <v>39.26798425918741</v>
+        <v>67.22719917761486</v>
       </c>
       <c r="G43">
-        <v>97.6517994046895</v>
+        <v>167.3282113288351</v>
       </c>
       <c r="I43">
-        <v>308.0836057415738</v>
+        <v>429.6513197102394</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>222.8298542101802</v>
+        <v>204.1500921167139</v>
       </c>
       <c r="C44">
-        <v>0.02758087761601007</v>
+        <v>0.04731294165512365</v>
       </c>
       <c r="D44">
-        <v>52.08323450336313</v>
+        <v>89.24208409266873</v>
       </c>
       <c r="E44">
-        <v>21.67251774399809</v>
+        <v>37.1775902789329</v>
       </c>
       <c r="F44">
-        <v>48.32982678053834</v>
+        <v>82.74116821860289</v>
       </c>
       <c r="G44">
-        <v>88.88817638119168</v>
+        <v>152.3115769788114</v>
       </c>
       <c r="H44">
-        <v>4.713866578677232</v>
+        <v>8.08628708310323</v>
       </c>
       <c r="I44">
-        <v>438.5450570755647</v>
+        <v>573.7561117104882</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>243.8351951804305</v>
+        <v>223.3945614416131</v>
       </c>
       <c r="C45">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D45">
-        <v>48.61101886980559</v>
+        <v>83.2926118198242</v>
       </c>
       <c r="E45">
-        <v>14.44834516266539</v>
+        <v>24.78506018595526</v>
       </c>
       <c r="F45">
-        <v>38.66386142443066</v>
+        <v>66.1929345748823</v>
       </c>
       <c r="G45">
-        <v>65.10119960312633</v>
+        <v>111.5521408858901</v>
       </c>
       <c r="H45">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I45">
-        <v>413.8481660889366</v>
+        <v>514.6870218663257</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>183.6343210595071</v>
+        <v>168.240309149634</v>
       </c>
       <c r="C46">
-        <v>0.06895219404002517</v>
+        <v>0.1182823541378091</v>
       </c>
       <c r="D46">
-        <v>50.34712668658435</v>
+        <v>86.26734795624651</v>
       </c>
       <c r="E46">
-        <v>13.24431639910994</v>
+        <v>22.71963850379231</v>
       </c>
       <c r="F46">
-        <v>46.51745827626814</v>
+        <v>79.63837441040529</v>
       </c>
       <c r="G46">
-        <v>90.14012252740569</v>
+        <v>154.4568104573863</v>
       </c>
       <c r="H46">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I46">
-        <v>387.0948748620334</v>
+        <v>516.8316208870043</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>139.0250402360891</v>
+        <v>127.3706114080955</v>
       </c>
       <c r="C47">
-        <v>0.04596812936001678</v>
+        <v>0.07885490275853942</v>
       </c>
       <c r="D47">
-        <v>48.61101886980559</v>
+        <v>83.2926118198242</v>
       </c>
       <c r="E47">
-        <v>9.632230108443594</v>
+        <v>16.52337345730351</v>
       </c>
       <c r="F47">
-        <v>57.39166930188927</v>
+        <v>98.25513725959091</v>
       </c>
       <c r="G47">
-        <v>88.88817638119168</v>
+        <v>152.3115769788114</v>
       </c>
       <c r="H47">
-        <v>3.928222148897693</v>
+        <v>6.73857256925269</v>
       </c>
       <c r="I47">
-        <v>347.522325175677</v>
+        <v>484.5707383956368</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>135.1271419117129</v>
+        <v>123.7994727704854</v>
       </c>
       <c r="C48">
-        <v>0.03217769055201175</v>
+        <v>0.05519843193097759</v>
       </c>
       <c r="D48">
-        <v>38.19437196913296</v>
+        <v>65.4441950012904</v>
       </c>
       <c r="E48">
-        <v>10.23424449022132</v>
+        <v>17.55608429838497</v>
       </c>
       <c r="F48">
-        <v>54.97517796286237</v>
+        <v>94.1180788486608</v>
       </c>
       <c r="G48">
-        <v>63.84925345691236</v>
+        <v>109.4069074073153</v>
       </c>
       <c r="H48">
-        <v>3.142577719118154</v>
+        <v>5.390858055402153</v>
       </c>
       <c r="I48">
-        <v>305.5549452005121</v>
+        <v>415.7707948134699</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>139.4581400499087</v>
+        <v>127.7674045900522</v>
       </c>
       <c r="C49">
-        <v>0.07354900697602684</v>
+        <v>0.1261678444136631</v>
       </c>
       <c r="D49">
-        <v>38.19437196913296</v>
+        <v>65.4441950012904</v>
       </c>
       <c r="E49">
-        <v>7.82618696311042</v>
+        <v>13.4252409340591</v>
       </c>
       <c r="F49">
-        <v>45.30921260675471</v>
+        <v>77.56984520494022</v>
       </c>
       <c r="G49">
-        <v>51.32979199477268</v>
+        <v>87.95457262156721</v>
       </c>
       <c r="H49">
-        <v>1.571288859559077</v>
+        <v>2.695429027701076</v>
       </c>
       <c r="I49">
-        <v>283.7625414502147</v>
+        <v>374.9828552240239</v>
       </c>
     </row>
   </sheetData>
